--- a/output/CodeSystem-QualificationStatusCS.xlsx
+++ b/output/CodeSystem-QualificationStatusCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-25T10:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
